--- a/Dataset/Authors/TERT_apol.xlsx
+++ b/Dataset/Authors/TERT_apol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA5835D-9308-457F-9631-0A70CD9E028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E729E99-27E7-4AEF-81AA-2F4EDF9C5680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,9 +193,6 @@
     <t>Pyriphlegethon</t>
   </si>
   <si>
-    <t>quindecimvir</t>
-  </si>
-  <si>
     <t>respublica</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>Occurrences</t>
+  </si>
+  <si>
+    <t>quindecimviri</t>
   </si>
 </sst>
 </file>
@@ -797,10 +797,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B58" s="7">
         <v>1</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="7">
         <v>2</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="7">
         <v>5</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="7">
         <v>2</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="7">
         <v>3</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="7">
         <v>7</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="7">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="7">
         <v>1</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="7">
         <v>1</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="7">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="7">
         <v>3</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="7">
         <v>3</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="7">
         <v>5</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="7">
         <v>1</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="7">
         <v>1</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="7">
         <v>2</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="7">
         <v>1</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="7">
         <v>1</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="7">
         <v>3</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="7">
         <v>1</v>
@@ -3205,6 +3205,9 @@
       <c r="AA77" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B77">
+    <sortCondition ref="A59:A77"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
